--- a/python/two/night SD t1=6 t2=3 δ=0.5.xlsx
+++ b/python/two/night SD t1=6 t2=3 δ=0.5.xlsx
@@ -473,22 +473,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>6.00e+00</t>
+          <t>6.01e+00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.05e-06</t>
+          <t>0.0774</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.93e+00</t>
+          <t>5.98e+00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.0781</t>
+          <t>0.0814</t>
         </is>
       </c>
     </row>
@@ -505,22 +505,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3.00e+00</t>
+          <t>3.23e+00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.000236</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.93e+00</t>
+          <t>5.04e+00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>0.39</t>
         </is>
       </c>
     </row>
@@ -537,22 +537,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3.00e+00</t>
+          <t>3.27e+00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.000236</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.95e+00</t>
+          <t>5.04e+00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>0.391</t>
         </is>
       </c>
     </row>
@@ -569,22 +569,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>5.00e-01</t>
+          <t>4.93e-01</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.34e-05</t>
+          <t>0.244</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.42e-01</t>
+          <t>2.68e-01</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.197</t>
+          <t>0.103</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.41e-10</t>
+          <t>4.66e-06</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.59e-06</t>
+          <t>4.29e-06</t>
         </is>
       </c>
     </row>
